--- a/Systematic Review/Alex Popescu - SR Sheet Final - F.xlsx
+++ b/Systematic Review/Alex Popescu - SR Sheet Final - F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Alex-Popescu-Thesis-2023\Systematic Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E09D1-2A87-47C6-A1EF-6243F862DFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17046199-0329-4CA6-96ED-F9F12C9E76E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3165" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F0CF6027-D897-45C1-B2B4-5F890F518C54}"/>
+    <workbookView xWindow="41745" yWindow="2490" windowWidth="25575" windowHeight="16440" activeTab="2" xr2:uid="{F0CF6027-D897-45C1-B2B4-5F890F518C54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="91" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5039,7 +5039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5051,7 +5051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20399,7 +20398,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7695C87A-59E5-4623-8272-45114E8B6271}" name="PivotTable2" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7695C87A-59E5-4623-8272-45114E8B6271}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E45" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="39">
     <pivotField dataField="1" showAll="0"/>
@@ -20691,9 +20690,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -20731,7 +20730,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -20837,7 +20836,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20979,7 +20978,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21066,16 +21065,16 @@
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>14</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>29</v>
       </c>
     </row>
@@ -21083,14 +21082,13 @@
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>3</v>
       </c>
     </row>
@@ -21098,14 +21096,13 @@
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>3</v>
       </c>
     </row>
@@ -21113,14 +21110,13 @@
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>5</v>
       </c>
     </row>
@@ -21128,12 +21124,10 @@
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>1</v>
       </c>
     </row>
@@ -21141,14 +21135,13 @@
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>4</v>
       </c>
     </row>
@@ -21156,12 +21149,10 @@
       <c r="A12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>6</v>
       </c>
     </row>
@@ -21169,12 +21160,10 @@
       <c r="A13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>6</v>
       </c>
     </row>
@@ -21182,12 +21171,10 @@
       <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>1</v>
       </c>
     </row>
@@ -21195,12 +21182,10 @@
       <c r="A15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
@@ -21208,12 +21193,10 @@
       <c r="A16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
+      <c r="E16">
         <v>1</v>
       </c>
     </row>
@@ -21221,12 +21204,10 @@
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
@@ -21234,12 +21215,10 @@
       <c r="A18" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
@@ -21247,12 +21226,10 @@
       <c r="A19" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>1</v>
       </c>
     </row>
@@ -21260,12 +21237,10 @@
       <c r="A20" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
+      <c r="E20">
         <v>1</v>
       </c>
     </row>
@@ -21273,12 +21248,10 @@
       <c r="A21" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>1</v>
       </c>
     </row>
@@ -21286,12 +21259,10 @@
       <c r="A22" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
+      <c r="E22">
         <v>1</v>
       </c>
     </row>
@@ -21299,12 +21270,10 @@
       <c r="A23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>1</v>
       </c>
     </row>
@@ -21312,12 +21281,10 @@
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24">
         <v>1</v>
       </c>
     </row>
@@ -21325,12 +21292,10 @@
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25">
         <v>1</v>
       </c>
     </row>
@@ -21338,12 +21303,10 @@
       <c r="A26" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26">
         <v>1</v>
       </c>
     </row>
@@ -21351,12 +21314,10 @@
       <c r="A27" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27">
         <v>1</v>
       </c>
     </row>
@@ -21364,12 +21325,10 @@
       <c r="A28" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5">
+      <c r="E28">
         <v>1</v>
       </c>
     </row>
@@ -21377,12 +21336,10 @@
       <c r="A29" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
+      <c r="E29">
         <v>1</v>
       </c>
     </row>
@@ -21390,12 +21347,10 @@
       <c r="A30" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
+      <c r="E30">
         <v>1</v>
       </c>
     </row>
@@ -21403,12 +21358,10 @@
       <c r="A31" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
+      <c r="E31">
         <v>1</v>
       </c>
     </row>
@@ -21416,12 +21369,10 @@
       <c r="A32" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5">
+      <c r="E32">
         <v>1</v>
       </c>
     </row>
@@ -21429,12 +21380,10 @@
       <c r="A33" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5">
+      <c r="E33">
         <v>1</v>
       </c>
     </row>
@@ -21442,14 +21391,13 @@
       <c r="A34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5">
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34">
         <v>5</v>
       </c>
     </row>
@@ -21457,12 +21405,10 @@
       <c r="A35" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5">
+      <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35">
         <v>1</v>
       </c>
     </row>
@@ -21470,12 +21416,10 @@
       <c r="A36" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5">
+      <c r="E36">
         <v>2</v>
       </c>
     </row>
@@ -21483,14 +21427,13 @@
       <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5">
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37">
         <v>2</v>
       </c>
     </row>
@@ -21498,16 +21441,16 @@
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38">
         <v>6</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38">
         <v>13</v>
       </c>
     </row>
@@ -21515,12 +21458,10 @@
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5">
+      <c r="E39">
         <v>1</v>
       </c>
     </row>
@@ -21528,12 +21469,10 @@
       <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5">
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5">
+      <c r="E40">
         <v>1</v>
       </c>
     </row>
@@ -21541,14 +21480,13 @@
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5">
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41">
         <v>5</v>
       </c>
     </row>
@@ -21556,14 +21494,13 @@
       <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>3</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5">
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42">
         <v>5</v>
       </c>
     </row>
@@ -21571,16 +21508,16 @@
       <c r="A43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43">
         <v>7</v>
       </c>
     </row>
@@ -21588,16 +21525,16 @@
       <c r="A44" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44">
         <v>7</v>
       </c>
     </row>
@@ -21605,16 +21542,16 @@
       <c r="A45" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>13</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45">
         <v>9</v>
       </c>
-      <c r="D45" s="5">
-        <v>20</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
         <v>42</v>
       </c>
     </row>
@@ -21805,11 +21742,11 @@
         <v>26</v>
       </c>
       <c r="K2">
-        <f>IF(COUNT(N2,Q2,W2,Z2,M2,AB2) &gt;0,1,0)</f>
+        <f t="shared" ref="K2:K43" si="0">IF(COUNT(N2,Q2,W2,Z2,M2,AB2) &gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="L2">
-        <f>IF(COUNT(O2,P2,R2,S2,T2,U2,V2,X2,Y2,AA2,AC2)&gt;0,1,0)</f>
+        <f t="shared" ref="L2:L43" si="1">IF(COUNT(O2,P2,R2,S2,T2,U2,V2,X2,Y2,AA2,AC2)&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="AA2">
@@ -21872,11 +21809,11 @@
         <v>26</v>
       </c>
       <c r="K3">
-        <f>IF(COUNT(N3,Q3,W3,Z3,M3,AB3) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f>IF(COUNT(O3,P3,R3,S3,T3,U3,V3,X3,Y3,AA3,AC3)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y3">
@@ -21939,11 +21876,11 @@
         <v>26</v>
       </c>
       <c r="K4">
-        <f>IF(COUNT(N4,Q4,W4,Z4,M4,AB4) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L4">
-        <f>IF(COUNT(O4,P4,R4,S4,T4,U4,V4,X4,Y4,AA4,AC4)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB4">
@@ -22003,11 +21940,11 @@
         <v>26</v>
       </c>
       <c r="K5">
-        <f>IF(COUNT(N5,Q5,W5,Z5,M5,AB5) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f>IF(COUNT(O5,P5,R5,S5,T5,U5,V5,X5,Y5,AA5,AC5)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z5">
@@ -22067,11 +22004,11 @@
         <v>26</v>
       </c>
       <c r="K6">
-        <f>IF(COUNT(N6,Q6,W6,Z6,M6,AB6) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>IF(COUNT(O6,P6,R6,S6,T6,U6,V6,X6,Y6,AA6,AC6)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z6">
@@ -22125,11 +22062,11 @@
         <v>26</v>
       </c>
       <c r="K7">
-        <f>IF(COUNT(N7,Q7,W7,Z7,M7,AB7) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L7">
-        <f>IF(COUNT(O7,P7,R7,S7,T7,U7,V7,X7,Y7,AA7,AC7)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z7">
@@ -22189,11 +22126,11 @@
         <v>26</v>
       </c>
       <c r="K8">
-        <f>IF(COUNT(N8,Q8,W8,Z8,M8,AB8) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L8">
-        <f>IF(COUNT(O8,P8,R8,S8,T8,U8,V8,X8,Y8,AA8,AC8)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W8">
@@ -22262,11 +22199,11 @@
         <v>26</v>
       </c>
       <c r="K9">
-        <f>IF(COUNT(N9,Q9,W9,Z9,M9,AB9) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>IF(COUNT(O9,P9,R9,S9,T9,U9,V9,X9,Y9,AA9,AC9)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T9">
@@ -22326,11 +22263,11 @@
         <v>26</v>
       </c>
       <c r="K10">
-        <f>IF(COUNT(N10,Q10,W10,Z10,M10,AB10) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IF(COUNT(O10,P10,R10,S10,T10,U10,V10,X10,Y10,AA10,AC10)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T10">
@@ -22390,11 +22327,11 @@
         <v>26</v>
       </c>
       <c r="K11">
-        <f>IF(COUNT(N11,Q11,W11,Z11,M11,AB11) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L11">
-        <f>IF(COUNT(O11,P11,R11,S11,T11,U11,V11,X11,Y11,AA11,AC11)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T11">
@@ -22454,11 +22391,11 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <f>IF(COUNT(N12,Q12,W12,Z12,M12,AB12) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L12">
-        <f>IF(COUNT(O12,P12,R12,S12,T12,U12,V12,X12,Y12,AA12,AC12)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N12">
@@ -22518,11 +22455,11 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <f>IF(COUNT(N13,Q13,W13,Z13,M13,AB13) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L13">
-        <f>IF(COUNT(O13,P13,R13,S13,T13,U13,V13,X13,Y13,AA13,AC13)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N13">
@@ -22585,11 +22522,11 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <f>IF(COUNT(N14,Q14,W14,Z14,M14,AB14) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L14">
-        <f>IF(COUNT(O14,P14,R14,S14,T14,U14,V14,X14,Y14,AA14,AC14)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14">
@@ -22646,11 +22583,11 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <f>IF(COUNT(N15,Q15,W15,Z15,M15,AB15) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L15">
-        <f>IF(COUNT(O15,P15,R15,S15,T15,U15,V15,X15,Y15,AA15,AC15)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N15">
@@ -22716,11 +22653,11 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <f>IF(COUNT(N16,Q16,W16,Z16,M16,AB16) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L16">
-        <f>IF(COUNT(O16,P16,R16,S16,T16,U16,V16,X16,Y16,AA16,AC16)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W16">
@@ -22783,11 +22720,11 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <f>IF(COUNT(N17,Q17,W17,Z17,M17,AB17) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L17">
-        <f>IF(COUNT(O17,P17,R17,S17,T17,U17,V17,X17,Y17,AA17,AC17)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N17">
@@ -22853,11 +22790,11 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <f>IF(COUNT(N18,Q18,W18,Z18,M18,AB18) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>IF(COUNT(O18,P18,R18,S18,T18,U18,V18,X18,Y18,AA18,AC18)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U18">
@@ -22917,11 +22854,11 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <f>IF(COUNT(N19,Q19,W19,Z19,M19,AB19) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>IF(COUNT(O19,P19,R19,S19,T19,U19,V19,X19,Y19,AA19,AC19)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R19">
@@ -22984,11 +22921,11 @@
         <v>26</v>
       </c>
       <c r="K20">
-        <f>IF(COUNT(N20,Q20,W20,Z20,M20,AB20) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L20">
-        <f>IF(COUNT(O20,P20,R20,S20,T20,U20,V20,X20,Y20,AA20,AC20)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z20">
@@ -23039,11 +22976,11 @@
         <v>26</v>
       </c>
       <c r="K21">
-        <f>IF(COUNT(N21,Q21,W21,Z21,M21,AB21) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L21">
-        <f>IF(COUNT(O21,P21,R21,S21,T21,U21,V21,X21,Y21,AA21,AC21)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z21">
@@ -23103,11 +23040,11 @@
         <v>26</v>
       </c>
       <c r="K22">
-        <f>IF(COUNT(N22,Q22,W22,Z22,M22,AB22) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>IF(COUNT(O22,P22,R22,S22,T22,U22,V22,X22,Y22,AA22,AC22)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S22">
@@ -23164,11 +23101,11 @@
         <v>26</v>
       </c>
       <c r="K23">
-        <f>IF(COUNT(N23,Q23,W23,Z23,M23,AB23) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L23">
-        <f>IF(COUNT(O23,P23,R23,S23,T23,U23,V23,X23,Y23,AA23,AC23)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U23">
@@ -23225,11 +23162,11 @@
         <v>26</v>
       </c>
       <c r="K24">
-        <f>IF(COUNT(N24,Q24,W24,Z24,M24,AB24) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L24">
-        <f>IF(COUNT(O24,P24,R24,S24,T24,U24,V24,X24,Y24,AA24,AC24)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U24">
@@ -23295,11 +23232,11 @@
         <v>26</v>
       </c>
       <c r="K25">
-        <f>IF(COUNT(N25,Q25,W25,Z25,M25,AB25) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L25">
-        <f>IF(COUNT(O25,P25,R25,S25,T25,U25,V25,X25,Y25,AA25,AC25)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U25">
@@ -23362,11 +23299,11 @@
         <v>26</v>
       </c>
       <c r="K26">
-        <f>IF(COUNT(N26,Q26,W26,Z26,M26,AB26) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>IF(COUNT(O26,P26,R26,S26,T26,U26,V26,X26,Y26,AA26,AC26)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O26">
@@ -23423,11 +23360,11 @@
         <v>26</v>
       </c>
       <c r="K27">
-        <f>IF(COUNT(N27,Q27,W27,Z27,M27,AB27) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>IF(COUNT(O27,P27,R27,S27,T27,U27,V27,X27,Y27,AA27,AC27)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA27">
@@ -23487,11 +23424,11 @@
         <v>26</v>
       </c>
       <c r="K28">
-        <f>IF(COUNT(N28,Q28,W28,Z28,M28,AB28) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L28">
-        <f>IF(COUNT(O28,P28,R28,S28,T28,U28,V28,X28,Y28,AA28,AC28)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N28">
@@ -23554,11 +23491,11 @@
         <v>26</v>
       </c>
       <c r="K29">
-        <f>IF(COUNT(N29,Q29,W29,Z29,M29,AB29) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>IF(COUNT(O29,P29,R29,S29,T29,U29,V29,X29,Y29,AA29,AC29)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R29">
@@ -23615,11 +23552,11 @@
         <v>26</v>
       </c>
       <c r="K30">
-        <f>IF(COUNT(N30,Q30,W30,Z30,M30,AB30) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L30">
-        <f>IF(COUNT(O30,P30,R30,S30,T30,U30,V30,X30,Y30,AA30,AC30)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q30">
@@ -23679,11 +23616,11 @@
         <v>26</v>
       </c>
       <c r="K31">
-        <f>IF(COUNT(N31,Q31,W31,Z31,M31,AB31) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>IF(COUNT(O31,P31,R31,S31,T31,U31,V31,X31,Y31,AA31,AC31)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O31">
@@ -23746,11 +23683,11 @@
         <v>26</v>
       </c>
       <c r="K32">
-        <f>IF(COUNT(N32,Q32,W32,Z32,M32,AB32) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L32">
-        <f>IF(COUNT(O32,P32,R32,S32,T32,U32,V32,X32,Y32,AA32,AC32)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O32">
@@ -23813,11 +23750,11 @@
         <v>26</v>
       </c>
       <c r="K33">
-        <f>IF(COUNT(N33,Q33,W33,Z33,M33,AB33) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L33">
-        <f>IF(COUNT(O33,P33,R33,S33,T33,U33,V33,X33,Y33,AA33,AC33)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U33">
@@ -23877,11 +23814,11 @@
         <v>26</v>
       </c>
       <c r="K34">
-        <f>IF(COUNT(N34,Q34,W34,Z34,M34,AB34) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L34">
-        <f>IF(COUNT(O34,P34,R34,S34,T34,U34,V34,X34,Y34,AA34,AC34)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U34">
@@ -23947,11 +23884,11 @@
         <v>26</v>
       </c>
       <c r="K35">
-        <f>IF(COUNT(N35,Q35,W35,Z35,M35,AB35) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L35">
-        <f>IF(COUNT(O35,P35,R35,S35,T35,U35,V35,X35,Y35,AA35,AC35)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W35">
@@ -24014,11 +23951,11 @@
         <v>26</v>
       </c>
       <c r="K36">
-        <f>IF(COUNT(N36,Q36,W36,Z36,M36,AB36) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L36">
-        <f>IF(COUNT(O36,P36,R36,S36,T36,U36,V36,X36,Y36,AA36,AC36)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U36">
@@ -24081,11 +24018,11 @@
         <v>26</v>
       </c>
       <c r="K37">
-        <f>IF(COUNT(N37,Q37,W37,Z37,M37,AB37) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L37">
-        <f>IF(COUNT(O37,P37,R37,S37,T37,U37,V37,X37,Y37,AA37,AC37)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O37">
@@ -24145,11 +24082,11 @@
         <v>26</v>
       </c>
       <c r="K38">
-        <f>IF(COUNT(N38,Q38,W38,Z38,M38,AB38) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f>IF(COUNT(O38,P38,R38,S38,T38,U38,V38,X38,Y38,AA38,AC38)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R38">
@@ -24212,11 +24149,11 @@
         <v>26</v>
       </c>
       <c r="K39">
-        <f>IF(COUNT(N39,Q39,W39,Z39,M39,AB39) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L39">
-        <f>IF(COUNT(O39,P39,R39,S39,T39,U39,V39,X39,Y39,AA39,AC39)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M39">
@@ -24273,11 +24210,11 @@
         <v>26</v>
       </c>
       <c r="K40">
-        <f>IF(COUNT(N40,Q40,W40,Z40,M40,AB40) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L40">
-        <f>IF(COUNT(O40,P40,R40,S40,T40,U40,V40,X40,Y40,AA40,AC40)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N40">
@@ -24337,11 +24274,11 @@
         <v>26</v>
       </c>
       <c r="K41">
-        <f>IF(COUNT(N41,Q41,W41,Z41,M41,AB41) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f>IF(COUNT(O41,P41,R41,S41,T41,U41,V41,X41,Y41,AA41,AC41)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V41">
@@ -24401,11 +24338,11 @@
         <v>26</v>
       </c>
       <c r="K42">
-        <f>IF(COUNT(N42,Q42,W42,Z42,M42,AB42) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f>IF(COUNT(O42,P42,R42,S42,T42,U42,V42,X42,Y42,AA42,AC42)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X42">
@@ -24465,11 +24402,11 @@
         <v>26</v>
       </c>
       <c r="K43">
-        <f>IF(COUNT(N43,Q43,W43,Z43,M43,AB43) &gt;0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f>IF(COUNT(O43,P43,R43,S43,T43,U43,V43,X43,Y43,AA43,AC43)&gt;0,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC43">
@@ -24524,67 +24461,67 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" ref="N44:AC44" si="0">SUM(N2:N43)</f>
+        <f t="shared" ref="N44:AC44" si="2">SUM(N2:N43)</f>
         <v>7</v>
       </c>
       <c r="O44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="V44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="X44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AD44" t="s">
@@ -38210,7 +38147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120A663F-F96C-454E-B1CE-D9B973DE8E0D}">
   <dimension ref="A1:AK368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
